--- a/datas/huarun999/huarun999_middle.xlsx
+++ b/datas/huarun999/huarun999_middle.xlsx
@@ -11,14 +11,14 @@
     <sheet name="#API华润999 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">API华润999!$A$1:$R$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">API华润999!$A$1:$R$104</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="516">
   <si>
     <t>feature</t>
   </si>
@@ -97,8 +97,8 @@
   <si>
     <t>{
   "type": 0,
-  "accountName": "admin",
-  "password": "4nuL1fAvAPech6Kj/s+x4g=="
+  "accountName": "#username#",
+  "password": "#password#"
 }</t>
   </si>
   <si>
@@ -1838,13 +1838,25 @@
     <t>["#children_id#"]</t>
   </si>
   <si>
+    <t>API_AUTO_086</t>
+  </si>
+  <si>
+    <t>删除用户，删除成功</t>
+  </si>
+  <si>
+    <t>/sanjiu-admin-server/userInfo/delete</t>
+  </si>
+  <si>
+    <t>["#user_id#"]</t>
+  </si>
+  <si>
     <t>终端管理</t>
   </si>
   <si>
     <t>终端机构</t>
   </si>
   <si>
-    <t>API_AUTO_086</t>
+    <t>API_AUTO_087</t>
   </si>
   <si>
     <t>新增一条机构数据，新增成功</t>
@@ -1873,7 +1885,7 @@
 }</t>
   </si>
   <si>
-    <t>API_AUTO_087</t>
+    <t>API_AUTO_088</t>
   </si>
   <si>
     <t>查询新增的机构信息，查询成功</t>
@@ -1893,7 +1905,7 @@
     <t>{"mechanism_id":"$..records[0].id"}</t>
   </si>
   <si>
-    <t>API_AUTO_088</t>
+    <t>API_AUTO_089</t>
   </si>
   <si>
     <t>查看机构详情，正常展示</t>
@@ -1905,7 +1917,7 @@
     <t>{"id":"#mechanism_id#"}</t>
   </si>
   <si>
-    <t>API_AUTO_089</t>
+    <t>API_AUTO_090</t>
   </si>
   <si>
     <t>修改新增的机构信息，修改成功</t>
@@ -1938,7 +1950,7 @@
     <t>mechanism_id</t>
   </si>
   <si>
-    <t>API_AUTO_090</t>
+    <t>API_AUTO_091</t>
   </si>
   <si>
     <t>删除新增的机构数据，删除成功</t>
@@ -1953,7 +1965,7 @@
     <t>机构库存</t>
   </si>
   <si>
-    <t>API_AUTO_091</t>
+    <t>API_AUTO_092</t>
   </si>
   <si>
     <t>查询机构库存的所有数据，查询成功</t>
@@ -1972,7 +1984,7 @@
     <t>医生管理</t>
   </si>
   <si>
-    <t>API_AUTO_092</t>
+    <t>API_AUTO_093</t>
   </si>
   <si>
     <t>新增一条医生数据，新增成功</t>
@@ -2014,7 +2026,7 @@
 }</t>
   </si>
   <si>
-    <t>API_AUTO_093</t>
+    <t>API_AUTO_094</t>
   </si>
   <si>
     <t>查询医生数据，查询成功</t>
@@ -2034,7 +2046,7 @@
     <t>{"doctor_id":"$..records[0].id"}</t>
   </si>
   <si>
-    <t>API_AUTO_094</t>
+    <t>API_AUTO_095</t>
   </si>
   <si>
     <t>查看医生详情，查看成功</t>
@@ -2046,7 +2058,7 @@
     <t>{"id":"#doctor_id#"}</t>
   </si>
   <si>
-    <t>API_AUTO_095</t>
+    <t>API_AUTO_096</t>
   </si>
   <si>
     <t>修改医生信息，修改成功</t>
@@ -2092,7 +2104,7 @@
 }</t>
   </si>
   <si>
-    <t>API_AUTO_096</t>
+    <t>API_AUTO_097</t>
   </si>
   <si>
     <t>删除医生信息，删除成功</t>
@@ -2107,7 +2119,7 @@
     <t>区域关联</t>
   </si>
   <si>
-    <t>API_AUTO_097</t>
+    <t>API_AUTO_098</t>
   </si>
   <si>
     <t>条件为空查询，查询成功</t>
@@ -2122,7 +2134,7 @@
     <t>区域管理</t>
   </si>
   <si>
-    <t>API_AUTO_098</t>
+    <t>API_AUTO_099</t>
   </si>
   <si>
     <t>新增一条区域数据，新增成功</t>
@@ -2140,7 +2152,7 @@
 }</t>
   </si>
   <si>
-    <t>API_AUTO_099</t>
+    <t>API_AUTO_100</t>
   </si>
   <si>
     <t>查询新增的区域数据，查询成功</t>
@@ -2152,7 +2164,7 @@
     <t>{"region_id":"$..data[?(@.dictLabel=='测试专用')].id"}</t>
   </si>
   <si>
-    <t>API_AUTO_100</t>
+    <t>API_AUTO_101</t>
   </si>
   <si>
     <t>查看区域数据详情，正常展示</t>
@@ -2161,7 +2173,7 @@
     <t>{"id":#region_id#}</t>
   </si>
   <si>
-    <t>API_AUTO_101</t>
+    <t>API_AUTO_102</t>
   </si>
   <si>
     <t>修改新增的区域数据，修改成功</t>
@@ -2186,7 +2198,7 @@
     <t>region_id</t>
   </si>
   <si>
-    <t>API_AUTO_102</t>
+    <t>API_AUTO_103</t>
   </si>
   <si>
     <t>删除新增的区域数据，删除成功</t>
@@ -3316,19 +3328,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.98230088495575" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.2477876106195" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.5575221238938" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.2477876106195" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.4867256637168" style="3" customWidth="1"/>
     <col min="5" max="5" width="31" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.50442477876106" style="3" customWidth="1"/>
@@ -7260,54 +7272,54 @@
         <v>18</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="F87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="H87" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J87" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="K87" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L87" s="3">
+        <v>200</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N87" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:14">
+      <c r="A88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L87" s="3">
-        <v>200</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N87" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:15">
-      <c r="A88" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>400</v>
@@ -7342,63 +7354,63 @@
       <c r="N88" s="3">
         <v>200</v>
       </c>
-      <c r="O88" s="3" t="s">
+    </row>
+    <row r="89" customHeight="1" spans="1:15">
+      <c r="A89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:14">
-      <c r="A89" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="H89" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J89" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J89" s="3" t="s">
+      <c r="K89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L89" s="3">
+        <v>200</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N89" s="3">
+        <v>200</v>
+      </c>
+      <c r="O89" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:16">
+    </row>
+    <row r="90" customHeight="1" spans="1:14">
       <c r="A90" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>409</v>
@@ -7418,7 +7430,7 @@
       <c r="I90" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" s="3" t="s">
         <v>412</v>
       </c>
       <c r="K90" s="3" t="s">
@@ -7432,9 +7444,6 @@
       </c>
       <c r="N90" s="3">
         <v>200</v>
-      </c>
-      <c r="P90" s="3" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:16">
@@ -7442,79 +7451,79 @@
         <v>18</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="H91" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J91" s="3" t="s">
+      <c r="K91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L91" s="3">
+        <v>200</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N91" s="3">
+        <v>200</v>
+      </c>
+      <c r="P91" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L91" s="3">
-        <v>200</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N91" s="3">
-        <v>200</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:14">
+    </row>
+    <row r="92" customHeight="1" spans="1:16">
       <c r="A92" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="F92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="H92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="K92" s="3" t="s">
         <v>26</v>
       </c>
@@ -7526,6 +7535,9 @@
       </c>
       <c r="N92" s="3">
         <v>200</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:14">
@@ -7533,54 +7545,54 @@
         <v>18</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="F93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="H93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J93" s="1" t="s">
+      <c r="K93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L93" s="3">
+        <v>200</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N93" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:14">
+      <c r="A94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L93" s="3">
-        <v>200</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N93" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:15">
-      <c r="A94" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>428</v>
@@ -7615,52 +7627,52 @@
       <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3" t="s">
+    </row>
+    <row r="95" customHeight="1" spans="1:15">
+      <c r="A95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:14">
-      <c r="A95" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="F95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J95" s="1" t="s">
+      <c r="K95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L95" s="3">
+        <v>200</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N95" s="3">
+        <v>200</v>
+      </c>
+      <c r="O95" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L95" s="3">
-        <v>200</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N95" s="3">
-        <v>200</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:14">
@@ -7668,10 +7680,10 @@
         <v>18</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>437</v>
@@ -7712,10 +7724,10 @@
         <v>18</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>441</v>
@@ -7756,31 +7768,31 @@
         <v>18</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="F98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="H98" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>449</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>26</v>
@@ -7800,22 +7812,22 @@
         <v>18</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="F99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>33</v>
@@ -7839,62 +7851,59 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:15">
+    <row r="100" customHeight="1" spans="1:14">
       <c r="A100" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:15">
+      <c r="A101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:14">
-      <c r="A101" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>458</v>
@@ -7906,7 +7915,7 @@
         <v>22</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>33</v>
@@ -7929,28 +7938,31 @@
       <c r="N101" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:16">
+      <c r="O101" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:14">
       <c r="A102" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>33</v>
@@ -7958,8 +7970,8 @@
       <c r="I102" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J102" s="1" t="s">
-        <v>463</v>
+      <c r="J102" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>26</v>
@@ -7972,9 +7984,6 @@
       </c>
       <c r="N102" s="3">
         <v>200</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:16">
@@ -7982,10 +7991,10 @@
         <v>18</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>465</v>
@@ -7997,35 +8006,82 @@
         <v>22</v>
       </c>
       <c r="G103" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L103" s="3">
+        <v>200</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N103" s="3">
+        <v>200</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:16">
+      <c r="A104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H103" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L103" s="3">
-        <v>200</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N103" s="3">
-        <v>200</v>
-      </c>
-      <c r="P103" s="3" t="s">
-        <v>464</v>
+      <c r="H104" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L104" s="3">
+        <v>200</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N104" s="3">
+        <v>200</v>
+      </c>
+      <c r="P104" s="3" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R103">
+  <autoFilter ref="A1:R104">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8111,31 +8167,31 @@
     </row>
     <row r="2" ht="171" customHeight="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>26</v>
@@ -8155,28 +8211,28 @@
     </row>
     <row r="3" ht="44" customHeight="1" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
@@ -8196,25 +8252,25 @@
     </row>
     <row r="4" ht="81" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>26</v>
@@ -8231,25 +8287,25 @@
     </row>
     <row r="5" ht="67.5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>26</v>
@@ -8266,19 +8322,19 @@
     </row>
     <row r="6" ht="234" customHeight="1" spans="2:15">
       <c r="B6" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>26</v>
@@ -8293,24 +8349,24 @@
         <v>200</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" ht="40.5" spans="2:14">
       <c r="B7" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>26</v>
@@ -8327,19 +8383,19 @@
     </row>
     <row r="8" ht="229.5" spans="2:14">
       <c r="B8" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>26</v>
@@ -8356,19 +8412,19 @@
     </row>
     <row r="9" ht="94.5" spans="2:14">
       <c r="B9" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>26</v>
@@ -8391,13 +8447,13 @@
         <v>250</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -8408,7 +8464,7 @@
         <v>250</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -8419,7 +8475,7 @@
         <v>250</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" ht="27" spans="2:5">
@@ -8430,7 +8486,7 @@
         <v>250</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" ht="27" spans="2:5">
@@ -8441,7 +8497,7 @@
         <v>250</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -8452,7 +8508,7 @@
         <v>250</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -8463,7 +8519,7 @@
         <v>250</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -8474,62 +8530,62 @@
         <v>250</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" ht="27" spans="2:5">
       <c r="B19" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/datas/huarun999/huarun999_middle.xlsx
+++ b/datas/huarun999/huarun999_middle.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="515">
   <si>
     <t>feature</t>
   </si>
@@ -244,7 +244,7 @@
   </si>
   <si>
     <t>{
-  "bannerTitle": "测试专用",
+  "bannerTitle": "自动化测试专用",
   "bannerUrl": "treatment/4dc18f3da84efb8af3dd7dd2aef3d3a7/测试图片1.png",
   "bannerPosition": "1",
   "forwardType": 0,
@@ -267,7 +267,7 @@
   "pageNum": 1,
   "pageSize": 10,
   "deleteStatus": "false",
-  "bannerTitle": "测试专用"
+  "bannerTitle": "自动化测试专用"
 }</t>
   </si>
   <si>
@@ -296,7 +296,7 @@
   </si>
   <si>
     <t>{
-  "bannerTitle": "测试专用",
+  "bannerTitle": "自动化测试专用",
   "bannerUrl": "treatment/4dc18f3da84efb8af3dd7dd2aef3d3a7/测试图片1.png",
   "bannerPosition": 1,
   "forwardType": 0,
@@ -337,9 +337,9 @@
     <t>{
   "contentAuthor": "test",
   "contentDesc": "",
-  "contentDetail": "&lt;p&gt;测试专用&lt;/p&gt;",
+  "contentDetail": "&lt;p&gt;自动化测试专用&lt;/p&gt;",
   "contentSort": 0,
-  "contentTitle": "测试专用",
+  "contentTitle": "自动化测试专用",
   "contentType": "0",
   "contentUrl": "",
   "coverUrl": "treatment/4dc18f3da84efb8af3dd7dd2aef3d3a7/测试图片1.png",
@@ -368,7 +368,7 @@
     0,
     1
   ],
-  "contentTitle": "测试专用"
+  "contentTitle": "自动化测试专用"
 }</t>
   </si>
   <si>
@@ -399,9 +399,9 @@
     <t>{
   "contentAuthor": "test",
   "contentDesc": "",
-  "contentDetail": "&lt;p&gt;测试专用111&lt;/p&gt;",
+  "contentDetail": "&lt;p&gt;自动化测试专用111&lt;/p&gt;",
   "contentSort": 0,
-  "contentTitle": "测试专用",
+  "contentTitle": "自动化测试专用",
   "contentType": "0",
   "contentUrl": "",
   "coverUrl": "treatment/4dc18f3da84efb8af3dd7dd2aef3d3a7/测试图片1.png",
@@ -445,9 +445,9 @@
     <t>{
   "contentAuthor": "test",
   "contentDesc": "",
-  "contentDetail": "&lt;p&gt;测试专用&lt;/p&gt;",
+  "contentDetail": "&lt;p&gt;自动化测试专用&lt;/p&gt;",
   "contentSort": 0,
-  "contentTitle": "测试专用",
+  "contentTitle": "自动化测试专用",
   "contentType": 2,
   "contentUrl": "",
   "coverUrl": "treatment/4dc18f3da84efb8af3dd7dd2aef3d3a7/测试图片1.png",
@@ -475,7 +475,7 @@
   "contentTypes": [
     2
   ],
-  "contentTitle": "测试专用"
+  "contentTitle": "自动化测试专用"
 }</t>
   </si>
   <si>
@@ -500,9 +500,9 @@
     <t>{
   "contentAuthor": "test",
   "contentDesc": "",
-  "contentDetail": "&lt;p&gt;测试专用1111&lt;/p&gt;",
+  "contentDetail": "&lt;p&gt;自动化测试专用1111&lt;/p&gt;",
   "contentSort": 0,
-  "contentTitle": "测试专用",
+  "contentTitle": "自动化测试专用",
   "contentType": 2,
   "contentUrl": "",
   "coverUrl": "treatment/4dc18f3da84efb8af3dd7dd2aef3d3a7/测试图片1.png",
@@ -546,7 +546,7 @@
     <t>{
   "parentId": 0,
   "dictTitle": "",
-  "dictLabel": "测试专用",
+  "dictLabel": "自动化测试专用",
   "dictValue": "0",
   "listClass": "",
   "sort": 0,
@@ -567,7 +567,7 @@
     <t>{"dictType":"content_classify"}</t>
   </si>
   <si>
-    <t>{"tuwenfenzu_id":"$.data[?(@.dictLabel=='测试专用')].id"}</t>
+    <t>{"tuwenfenzu_id":"$.data[?(@.dictLabel=='自动化测试专用')].id"}</t>
   </si>
   <si>
     <t>API_AUTO_024</t>
@@ -594,7 +594,7 @@
     <t>{
   "createTime": "2023-01-29 16:05:50",
   "creator": "1",
-  "dictLabel": "测试专用",
+  "dictLabel": "自动化测试专用",
   "dictTitle": "",
   "dictType": "content_classify",
   "dictValue": "0",
@@ -634,8 +634,8 @@
     <t>{
   "parentId": 0,
   "dictTitle": "",
-  "dictLabel": "测试专用",
-  "dictValue": "测试专用",
+  "dictLabel": "自动化测试专用",
+  "dictValue": "自动化测试专用",
   "listClass": "",
   "sort": 0,
   "remark": "",
@@ -652,7 +652,7 @@
     <t>{"dictType":"faq_question"}</t>
   </si>
   <si>
-    <t>{"FAQ_id":"$.data[?(@.dictLabel=='测试专用')].id"}</t>
+    <t>{"FAQ_id":"$.data[?(@.dictLabel=='自动化测试专用')].id"}</t>
   </si>
   <si>
     <t>API_AUTO_029</t>
@@ -673,10 +673,10 @@
     <t>{
   "createTime": "2023-01-29 16:13:06",
   "creator": "1",
-  "dictLabel": "测试专用",
+  "dictLabel": "自动化测试专用",
   "dictTitle": "",
   "dictType": "faq_question",
-  "dictValue": "测试专用",
+  "dictValue": "自动化测试专用",
   "id": "#FAQ_id#",
   "parentId": 0,
   "remark": "111",
@@ -796,7 +796,7 @@
   </si>
   <si>
     <t>{
-  "name": "测试专用",
+  "name": "自动化测试专用",
   "code": "customer",
   "description": "",
   "menuIdList": [
@@ -819,7 +819,7 @@
   "pageNum": 1,
   "pageSize": 10,
   "filterAdminRole": false,
-  "name": "测试专用"
+  "name": "自动化测试专用"
 }</t>
   </si>
   <si>
@@ -848,9 +848,9 @@
   </si>
   <si>
     <t>{
-  "name": "测试专用",
+  "name": "自动化测试专用",
   "code": "customer",
-  "description": "测试专用",
+  "description": "自动化测试专用",
   "menuIdList": [
     "e2188ed433740ebc638a90ad99195d8c",
     "3df0e26917ecd58c5f65b3e1f28d62a0",
@@ -889,7 +889,7 @@
   <si>
     <t>{
   "parentId": "",
-  "name": "测试专用",
+  "name": "自动化测试专用",
   "path": "",
   "type": 0,
   "visible": 0,
@@ -912,7 +912,7 @@
     <t>{}</t>
   </si>
   <si>
-    <t>{"menu_id":"$.data[?(@.name=='测试专用')].id"}</t>
+    <t>{"menu_id":"$.data[?(@.name=='自动化测试专用')].id"}</t>
   </si>
   <si>
     <t>API_AUTO_044</t>
@@ -939,7 +939,7 @@
   <si>
     <t>{
   "parentId": "",
-  "name": "测试专用",
+  "name": "自动化测试专用",
   "path": "",
   "type": 0,
   "visible": 0,
@@ -979,7 +979,7 @@
   </si>
   <si>
     <t>{
-  "dictName": "测试专用",
+  "dictName": "自动化测试专用",
   "dictType": "autotest",
   "sort": "0",
   "remark": "",
@@ -999,7 +999,7 @@
     <t>{
   "pageNum": 1,
   "pageSize": 10,
-  "dictName": "测试专用"
+  "dictName": "自动化测试专用"
 }</t>
   </si>
   <si>
@@ -1032,7 +1032,7 @@
   "creator": "1",
   "deleted": 0,
   "dictBusinessStatus": "true",
-  "dictName": "测试专用",
+  "dictName": "自动化测试专用",
   "dictType": "autotest",
   "id": "#datadict_id#",
   "remark": "11111",
@@ -1061,9 +1061,6 @@
     <t>用户管理</t>
   </si>
   <si>
-    <t>用户档案</t>
-  </si>
-  <si>
     <t>API_AUTO_052</t>
   </si>
   <si>
@@ -1076,7 +1073,7 @@
     <t>{
   "customerId": "1",
   "channel": 2,
-  "userName": "测试专用",
+  "userName": "自动化测试专用",
   "nickName": "",
   "sex": "1",
   "mobile": "00000000000",
@@ -1112,7 +1109,7 @@
   <si>
     <t>{
   "customerId": "1",
-  "userName": "测试专用",
+  "userName": "自动化测试专用",
   "nickName": "测试",
   "sex": 1,
   "mobile": "00000000000",
@@ -1144,7 +1141,7 @@
     <t>{"id":"#user_id#"}</t>
   </si>
   <si>
-    <t>用户档案-用药人详情</t>
+    <t>用药人列表</t>
   </si>
   <si>
     <t>API_AUTO_055</t>
@@ -1819,10 +1816,10 @@
   </si>
   <si>
     <t>{
-  "customerId": "1",
+  "customerId": "120230131",
   "pageNum": 1,
   "pageSize": 10,
-  "userName": "测试专用"
+  "userName": "自动化测试专用"
 }</t>
   </si>
   <si>
@@ -1994,7 +1991,7 @@
   </si>
   <si>
     <t>{
-  "doctorName": "测试专用",
+  "doctorName": "自动化测试专用",
   "nickName": "",
   "jobNo": "",
   "sex": 1,
@@ -2016,9 +2013,9 @@
     {
       "mechanismId": "a668f8c0cfedf1267a90720114bafcf6",
       "department": "骨外科",
-      "leader": "测试专用",
+      "leader": "自动化测试专用",
       "leaderId": "770b8e8e50d48bf19a85e94db50ecd57",
-      "seller": "测试专用",
+      "seller": "自动化测试专用",
       "sellerId": "770b8e8e50d48bf19a85e94db50ecd57",
       "tittle": "test"
     }
@@ -2039,7 +2036,7 @@
   "pageNum": 1,
   "pageSize": 10,
   "deleteStatus": "false",
-  "searchValue": "测试专用"
+  "searchValue": "自动化测试专用"
 }</t>
   </si>
   <si>
@@ -2068,7 +2065,7 @@
   </si>
   <si>
     <t>{
-  "doctorName": "测试专用",
+  "doctorName": "自动化测试专用",
   "nickName": "",
   "jobNo": "",
   "sex": "2",
@@ -2090,12 +2087,12 @@
     {
       "department": "骨外科",
       "doctorId": "#doctor_id#",
-      "leader": "小美,测试专用",
+      "leader": "小美,自动化测试专用",
       "leaderId": "4e53142c56bf865dcefe6fb114522336,770b8e8e50d48bf19a85e94db50ecd57",
       "mechanismCode": "autotest",
       "mechanismId": "a668f8c0cfedf1267a90720114bafcf6",
-      "mechanismName": "测试专用",
-      "seller": "测试专用",
+      "mechanismName": "自动化测试专用",
+      "seller": "自动化测试专用",
       "sellerId": "770b8e8e50d48bf19a85e94db50ecd57",
       "tittle": "test"
     }
@@ -2143,7 +2140,7 @@
     <t>{
   "parentId": 0,
   "dictTitle": "",
-  "dictLabel": "测试专用",
+  "dictLabel": "自动化测试专用",
   "dictValue": "",
   "listClass": "",
   "sort": 0,
@@ -2161,7 +2158,7 @@
     <t>{"dictType":"region"}</t>
   </si>
   <si>
-    <t>{"region_id":"$..data[?(@.dictLabel=='测试专用')].id"}</t>
+    <t>{"region_id":"$..data[?(@.dictLabel=='自动化测试专用')].id"}</t>
   </si>
   <si>
     <t>API_AUTO_101</t>
@@ -2182,7 +2179,7 @@
     <t>{
   "createTime": "2023-01-28 17:25:36",
   "creator": "1",
-  "dictLabel": "测试专用",
+  "dictLabel": "自动化测试专用",
   "dictTitle": "",
   "dictType": "region",
   "dictValue": "1",
@@ -3330,10 +3327,10 @@
   <sheetPr/>
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" customHeight="1"/>
@@ -3342,7 +3339,7 @@
     <col min="2" max="2" width="11.2477876106195" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.2477876106195" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.4867256637168" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.7699115044248" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.50442477876106" style="3" customWidth="1"/>
     <col min="7" max="7" width="34.6548672566372" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.0796460176991" style="3" customWidth="1"/>
@@ -4175,7 +4172,7 @@
       <c r="I18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -4219,7 +4216,7 @@
       <c r="I19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="1" t="s">
         <v>108</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -4404,7 +4401,7 @@
       <c r="I23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="1" t="s">
         <v>124</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -5746,46 +5743,46 @@
         <v>250</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J53" s="1" t="s">
+      <c r="K53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="3">
+        <v>200</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" s="3">
+        <v>200</v>
+      </c>
+      <c r="O53" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="3">
-        <v>200</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N53" s="3">
-        <v>200</v>
-      </c>
-      <c r="O53" s="3" t="s">
+      <c r="R53" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="R53" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:14">
@@ -5796,28 +5793,28 @@
         <v>250</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>26</v>
@@ -5840,28 +5837,28 @@
         <v>250</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>26</v>
@@ -5884,43 +5881,43 @@
         <v>250</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" s="3">
+        <v>200</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" s="3">
+        <v>200</v>
+      </c>
+      <c r="O56" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L56" s="3">
-        <v>200</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N56" s="3">
-        <v>200</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:14">
@@ -5931,28 +5928,28 @@
         <v>250</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>26</v>
@@ -5975,28 +5972,28 @@
         <v>250</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>26</v>
@@ -6019,28 +6016,28 @@
         <v>250</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>26</v>
@@ -6063,46 +6060,46 @@
         <v>250</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
-      </c>
-      <c r="O60" s="3" t="s">
+      <c r="R60" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:14">
@@ -6113,28 +6110,28 @@
         <v>250</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>26</v>
@@ -6157,28 +6154,28 @@
         <v>250</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>26</v>
@@ -6201,28 +6198,28 @@
         <v>250</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>26</v>
@@ -6245,46 +6242,46 @@
         <v>250</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="H64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" s="3">
+        <v>200</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N64" s="3">
+        <v>200</v>
+      </c>
+      <c r="O64" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L64" s="3">
-        <v>200</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N64" s="3">
-        <v>200</v>
-      </c>
-      <c r="O64" s="3" t="s">
+      <c r="R64" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="R64" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:14">
@@ -6295,28 +6292,28 @@
         <v>250</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>26</v>
@@ -6339,28 +6336,28 @@
         <v>250</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>26</v>
@@ -6383,28 +6380,28 @@
         <v>250</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>26</v>
@@ -6427,28 +6424,28 @@
         <v>250</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>26</v>
@@ -6471,28 +6468,28 @@
         <v>250</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="H69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>26</v>
@@ -6515,43 +6512,43 @@
         <v>250</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J70" s="1" t="s">
+      <c r="K70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L70" s="3">
+        <v>200</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N70" s="3">
+        <v>200</v>
+      </c>
+      <c r="O70" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L70" s="3">
-        <v>200</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N70" s="3">
-        <v>200</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:14">
@@ -6562,28 +6559,28 @@
         <v>250</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="H71" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>26</v>
@@ -6606,28 +6603,28 @@
         <v>250</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="H72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>26</v>
@@ -6650,28 +6647,28 @@
         <v>250</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="H73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>26</v>
@@ -6694,43 +6691,43 @@
         <v>250</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="H74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L74" s="3">
+        <v>200</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N74" s="3">
+        <v>200</v>
+      </c>
+      <c r="O74" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L74" s="3">
-        <v>200</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N74" s="3">
-        <v>200</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:14">
@@ -6741,28 +6738,28 @@
         <v>250</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>26</v>
@@ -6785,28 +6782,28 @@
         <v>250</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="H76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>26</v>
@@ -6829,28 +6826,28 @@
         <v>250</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="H77" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>26</v>
@@ -6873,43 +6870,43 @@
         <v>250</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="H78" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L78" s="3">
+        <v>200</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N78" s="3">
+        <v>200</v>
+      </c>
+      <c r="O78" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L78" s="3">
-        <v>200</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N78" s="3">
-        <v>200</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:14">
@@ -6920,28 +6917,28 @@
         <v>250</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="H79" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>26</v>
@@ -6964,28 +6961,28 @@
         <v>250</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="H80" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>26</v>
@@ -7008,43 +7005,43 @@
         <v>250</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L81" s="3">
+        <v>200</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N81" s="3">
+        <v>200</v>
+      </c>
+      <c r="O81" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L81" s="3">
-        <v>200</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N81" s="3">
-        <v>200</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:14">
@@ -7055,20 +7052,20 @@
         <v>250</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="F82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="H82" s="3" t="s">
         <v>33</v>
       </c>
@@ -7076,7 +7073,7 @@
         <v>34</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>26</v>
@@ -7099,28 +7096,28 @@
         <v>250</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="H83" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>26</v>
@@ -7143,28 +7140,28 @@
         <v>250</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D84" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J84" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>26</v>
@@ -7187,28 +7184,28 @@
         <v>250</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>26</v>
@@ -7231,28 +7228,28 @@
         <v>250</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D86" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="H86" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>26</v>
@@ -7278,25 +7275,25 @@
         <v>250</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="H87" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J87" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>26</v>
@@ -7316,31 +7313,31 @@
         <v>18</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="F88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="3" t="s">
+      <c r="H88" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J88" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>26</v>
@@ -7360,46 +7357,46 @@
         <v>18</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="D89" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="H89" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J89" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J89" s="3" t="s">
+      <c r="K89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L89" s="3">
+        <v>200</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N89" s="3">
+        <v>200</v>
+      </c>
+      <c r="O89" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:14">
@@ -7407,31 +7404,31 @@
         <v>18</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="D90" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="H90" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>26</v>
@@ -7451,46 +7448,46 @@
         <v>18</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="D91" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="H91" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J91" s="1" t="s">
+      <c r="K91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L91" s="3">
+        <v>200</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N91" s="3">
+        <v>200</v>
+      </c>
+      <c r="P91" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L91" s="3">
-        <v>200</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N91" s="3">
-        <v>200</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:16">
@@ -7498,32 +7495,32 @@
         <v>18</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="D92" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="F92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="H92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="K92" s="3" t="s">
         <v>26</v>
       </c>
@@ -7537,7 +7534,7 @@
         <v>200</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:14">
@@ -7545,31 +7542,31 @@
         <v>18</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="F93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="H93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>26</v>
@@ -7589,31 +7586,31 @@
         <v>18</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="F94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="H94" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>26</v>
@@ -7633,46 +7630,46 @@
         <v>18</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="F95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J95" s="1" t="s">
+      <c r="K95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L95" s="3">
+        <v>200</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N95" s="3">
+        <v>200</v>
+      </c>
+      <c r="O95" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L95" s="3">
-        <v>200</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N95" s="3">
-        <v>200</v>
-      </c>
-      <c r="O95" s="3" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:14">
@@ -7680,31 +7677,31 @@
         <v>18</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D96" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="F96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>26</v>
@@ -7724,31 +7721,31 @@
         <v>18</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="F97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>26</v>
@@ -7768,31 +7765,31 @@
         <v>18</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D98" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="F98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="H98" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>26</v>
@@ -7812,31 +7809,31 @@
         <v>18</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="F99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="H99" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J99" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>26</v>
@@ -7856,16 +7853,16 @@
         <v>18</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>22</v>
@@ -7880,7 +7877,7 @@
         <v>34</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>26</v>
@@ -7900,16 +7897,16 @@
         <v>18</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D101" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>22</v>
@@ -7924,22 +7921,22 @@
         <v>34</v>
       </c>
       <c r="J101" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L101" s="3">
+        <v>200</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N101" s="3">
+        <v>200</v>
+      </c>
+      <c r="O101" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L101" s="3">
-        <v>200</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N101" s="3">
-        <v>200</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:14">
@@ -7947,16 +7944,16 @@
         <v>18</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>22</v>
@@ -7971,7 +7968,7 @@
         <v>34</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>26</v>
@@ -7991,16 +7988,16 @@
         <v>18</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>466</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>22</v>
@@ -8015,22 +8012,22 @@
         <v>34</v>
       </c>
       <c r="J103" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L103" s="3">
+        <v>200</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N103" s="3">
+        <v>200</v>
+      </c>
+      <c r="P103" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L103" s="3">
-        <v>200</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N103" s="3">
-        <v>200</v>
-      </c>
-      <c r="P103" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:16">
@@ -8038,16 +8035,16 @@
         <v>18</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>22</v>
@@ -8062,7 +8059,7 @@
         <v>34</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>26</v>
@@ -8077,7 +8074,7 @@
         <v>200</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -8167,31 +8164,31 @@
     </row>
     <row r="2" ht="171" customHeight="1" spans="1:15">
       <c r="A2" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>26</v>
@@ -8211,28 +8208,28 @@
     </row>
     <row r="3" ht="44" customHeight="1" spans="1:16">
       <c r="A3" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
@@ -8252,25 +8249,25 @@
     </row>
     <row r="4" ht="81" spans="1:14">
       <c r="A4" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>26</v>
@@ -8287,25 +8284,25 @@
     </row>
     <row r="5" ht="67.5" spans="1:14">
       <c r="A5" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>26</v>
@@ -8322,51 +8319,51 @@
     </row>
     <row r="6" ht="234" customHeight="1" spans="2:15">
       <c r="B6" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1">
+        <v>200</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1">
+        <v>200</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="1">
-        <v>200</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="1">
-        <v>200</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="7" ht="40.5" spans="2:14">
       <c r="B7" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>26</v>
@@ -8383,19 +8380,19 @@
     </row>
     <row r="8" ht="229.5" spans="2:14">
       <c r="B8" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>26</v>
@@ -8412,19 +8409,19 @@
     </row>
     <row r="9" ht="94.5" spans="2:14">
       <c r="B9" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>26</v>
@@ -8447,13 +8444,13 @@
         <v>250</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -8464,7 +8461,7 @@
         <v>250</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -8475,7 +8472,7 @@
         <v>250</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" ht="27" spans="2:5">
@@ -8486,7 +8483,7 @@
         <v>250</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" ht="27" spans="2:5">
@@ -8497,7 +8494,7 @@
         <v>250</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -8508,7 +8505,7 @@
         <v>250</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -8519,7 +8516,7 @@
         <v>250</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -8530,62 +8527,62 @@
         <v>250</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="19" ht="27" spans="2:5">
       <c r="B19" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/datas/huarun999/huarun999_middle.xlsx
+++ b/datas/huarun999/huarun999_middle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9660"/>
+    <workbookView windowWidth="17017" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="API华润999" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">API华润999!$A$1:$R$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'#API华润999 (2)'!$A$1:$R$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="473">
   <si>
     <t>feature</t>
   </si>
@@ -108,7 +109,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>{"authorization":"$.data.token"}</t>
+    <t>{"authorization":"$.data.token","login_staffid":"$.data.staffId"}</t>
   </si>
   <si>
     <t>员工管理</t>
@@ -126,83 +127,79 @@
     <t>已登录</t>
   </si>
   <si>
-    <t>{"Content-Type": "application/json","charset":"utf-8","authorization":"#authorization#"}</t>
+    <t>{"Content-Type": "application/json","charset":"utf-8","authorization":"#authorization#","x-noncestr":"#noncestr#","x-signature":"#signature#","x-timestamp":"#timestamp#"}</t>
   </si>
   <si>
     <t>{
+  "headImg": "treatment/4dc18f3da84efb8af3dd7dd2aef3d3a7/测试图片1.png",
+  "name": "#name#",
+  "accountName": "#number#",
+  "empNo": "#number#",
+  "mobile": "#number#",
+  "email": "#number#",
+  "deptId": "#deptId#",
+  "jobName": "#name#",
+  "roleId": "#roleId#",
+  "provinceCode": "#provinceCode#",
+  "cityCode": "#cityCode#",
+  "areaCode": "#areaCode#",
+  "leaderId": "#login_staffid#",
+  "freezeStatus": "false"
+}</t>
+  </si>
+  <si>
+    <t>authorization</t>
+  </si>
+  <si>
+    <t>API_AUTO_003</t>
+  </si>
+  <si>
+    <t>员工姓名-查询，查询成功</t>
+  </si>
+  <si>
+    <t>/sanjiu-admin-server/sys/staff/list/page</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"name":"#name#"}</t>
+  </si>
+  <si>
+    <t>{"staff_id":"$.data.records[0].id"}</t>
+  </si>
+  <si>
+    <t>API_AUTO_004</t>
+  </si>
+  <si>
+    <t>员工信息详情-查看，正常展示</t>
+  </si>
+  <si>
+    <t>/sanjiu-admin-server/sys/staff/detail</t>
+  </si>
+  <si>
+    <t>{"staffId": "#staff_id#"}</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>API_AUTO_005</t>
+  </si>
+  <si>
+    <t>员工数据-修改，修改成功</t>
+  </si>
+  <si>
+    <t>/sanjiu-admin-server/sys/staff/update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
   "headImg": "",
-  "name": "自动化测试",
-  "accountName": "test131",
+  "name": "#name#",
+  "accountName": "#number#",
   "empNo": "",
-  "mobile": "14444444444",
+  "mobile": "#number#",
   "email": "",
   "deptId": "",
   "jobName": "",
-  "roleId": "1420190719089741255",
-  "provinceCode": "",
-  "cityCode": "",
-  "areaCode": "",
-  "leaderId": "",
-  "freezeStatus": "false"
-}</t>
-  </si>
-  <si>
-    <t>authorization</t>
-  </si>
-  <si>
-    <t>API_AUTO_003</t>
-  </si>
-  <si>
-    <t>员工姓名-查询，查询成功</t>
-  </si>
-  <si>
-    <t>/sanjiu-admin-server/sys/staff/list/page</t>
-  </si>
-  <si>
-    <t>{
-  "pageNum": 1,
-  "pageSize": 10,
-  "name": "自动化测试"
-}</t>
-  </si>
-  <si>
-    <t>{"staff_id":"$.data.records[0].id"}</t>
-  </si>
-  <si>
-    <t>API_AUTO_004</t>
-  </si>
-  <si>
-    <t>员工信息详情-查看，正常展示</t>
-  </si>
-  <si>
-    <t>/sanjiu-admin-server/sys/staff/detail</t>
-  </si>
-  <si>
-    <t>{"staffId": "#staff_id#"}</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>API_AUTO_005</t>
-  </si>
-  <si>
-    <t>员工数据-修改，修改成功</t>
-  </si>
-  <si>
-    <t>/sanjiu-admin-server/sys/staff/update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "headImg": "",
-  "name": "自动化测试",
-  "accountName": "test4321",
-  "empNo": "",
-  "mobile": "14444444444",
-  "email": "",
-  "deptId": "",
-  "jobName": "",
-  "roleId": "1420190719089741255",
+  "roleId": "#roleId#",
   "provinceCode": 0,
   "cityCode": 0,
   "areaCode": 0,
@@ -593,7 +590,7 @@
   <si>
     <t>{
   "createTime": "2023-01-29 16:05:50",
-  "creator": "1",
+  "creator": "#login_staffid#",
   "dictLabel": "自动化测试专用",
   "dictTitle": "",
   "dictType": "content_classify",
@@ -672,7 +669,7 @@
   <si>
     <t>{
   "createTime": "2023-01-29 16:13:06",
-  "creator": "1",
+  "creator": "##login_staffid",
   "dictLabel": "自动化测试专用",
   "dictTitle": "",
   "dictType": "faq_question",
@@ -1029,7 +1026,7 @@
   <si>
     <t>{
   "createTime": "2023-01-30 13:55:03",
-  "creator": "1",
+  "creator": "#login_staffid#",
   "deleted": 0,
   "dictBusinessStatus": "true",
   "dictName": "自动化测试专用",
@@ -1071,12 +1068,12 @@
   </si>
   <si>
     <t>{
-  "customerId": "1",
+  "customerId": "#login_staffid#",
   "channel": 2,
   "userName": "自动化测试专用",
   "nickName": "",
   "sex": "1",
-  "mobile": "00000000000",
+  "mobile": "#number#",
   "backupMobile": "",
   "provinceCode": 190000,
   "cityCode": 197300,
@@ -1108,11 +1105,11 @@
   </si>
   <si>
     <t>{
-  "customerId": "1",
+  "customerId": "#login_staffid#",
   "userName": "自动化测试专用",
   "nickName": "测试",
   "sex": 1,
-  "mobile": "00000000000",
+  "mobile": "#number#",
   "backupMobile": "11111111222",
   "provinceCode": 190000,
   "cityCode": 197300,
@@ -1816,7 +1813,7 @@
   </si>
   <si>
     <t>{
-  "customerId": "120230131",
+  "customerId": "#login_staffid#",
   "pageNum": 1,
   "pageSize": 10,
   "userName": "自动化测试专用"
@@ -1870,9 +1867,9 @@
     "department":"骨外科",
     "district":"上海区域",
     "leader":"超级管理员",
-    "leaderId":"1",
+    "leaderId":"#login_staffid#",
     "mechanismAttribute":"1",
-    "mechanismCode":"zidonghuaceshi",
+    "mechanismCode":"#number#",
     "mechanismLevel":"A3",
     "mechanismName":"自动化测试",
     "province":190000,
@@ -1936,7 +1933,7 @@
   "department": "骨外科",
   "cooperationRating": 0,
   "cooperationStatus": "1",
-  "leaderId": "1",
+  "leaderId": "#login_staffid#",
   "leader": "超级管理员",
   "sellerId": "1",
   "seller": "超级管理员",
@@ -2178,7 +2175,7 @@
   <si>
     <t>{
   "createTime": "2023-01-28 17:25:36",
-  "creator": "1",
+  "creator": "#login_staffid#",
   "dictLabel": "自动化测试专用",
   "dictTitle": "",
   "dictType": "region",
@@ -2204,180 +2201,10 @@
     <t>["#region_id#"]</t>
   </si>
   <si>
-    <t>小程序端</t>
-  </si>
-  <si>
-    <t>首页</t>
-  </si>
-  <si>
-    <t>banner分页查询</t>
-  </si>
-  <si>
-    <t>/app/banner/page</t>
-  </si>
-  <si>
-    <t>{
-"bannerTitle": "", //标题
-"bannerPosition": null, //banner位置(字典配置) 1-首页顶部
-"forwardType": null, //跳转方式(字典配置) 0=不跳转 1=内部 2=跳转外部链接
-"deleteStatus": null //删除状态 false-未删除 true-已删除
-}</t>
-  </si>
-  <si>
-    <t>banner详情</t>
-  </si>
-  <si>
-    <t>/app/banner/detail</t>
-  </si>
-  <si>
-    <t>{
-"bannerId": "#bannerId#" //主键id
-}</t>
-  </si>
-  <si>
-    <t>保存用户自定义banner</t>
-  </si>
-  <si>
-    <t>/app/banner/save</t>
-  </si>
-  <si>
-    <t>{
-    "userId":"5b0f0204c3230c8576f",//用户id
-    "bannerIds":["1","2","3"]//用户绑定的banner
-}</t>
-  </si>
-  <si>
-    <t>获取用户自定义banner</t>
-  </si>
-  <si>
-    <t>/app/banner/myself</t>
-  </si>
-  <si>
-    <t>{
-    "userId":"5b0f0204c3230c8576f"//用户id
-}</t>
-  </si>
-  <si>
-    <t>资讯</t>
-  </si>
-  <si>
-    <t>咨询列表</t>
-  </si>
-  <si>
-    <t>/cms/content/list/page</t>
-  </si>
-  <si>
-    <t>{
-    "id":"",//主键ID
-    "userId":"5b0f0204c3230c8576fcb277b6b5ebaa",//用户ID
-    "contentType":2,//默认资讯  2-活动
-    "contentTitle":"",//标题
-    "contentAuthor":"",//作者
-    "dictIds":"",//字典分类id总合 多个用逗号分隔
-    "parentDictIds":"",//字典父类一级id 多个用逗号分隔
-    "childDictIds":"",//字典父类二级id 多个用逗号分隔
-    "itemDictIds":""//字典父类三级id 多个用逗号分隔
-}</t>
-  </si>
-  <si>
-    <t>{"id":"$..records[0].id"}</t>
-  </si>
-  <si>
-    <t>咨询详情</t>
-  </si>
-  <si>
-    <t>/cms/content/detail</t>
-  </si>
-  <si>
-    <t>{
-    "id":"#id#"//主键ID
-}</t>
-  </si>
-  <si>
-    <t>咨询点击点赞转发统计</t>
-  </si>
-  <si>
-    <t>/cms/content/update</t>
-  </si>
-  <si>
-    <t>{
-    "id":"#id#",//内容基础数据统计表主键ID
-    "operType":1, //操作类型  1=收藏  2=点赞 3=转发 4=浏览详情
-    "userId": "5b0f0204c3230c8576fcb277b6b5ebaa",//用户id
-    "pvNum":1,//点击量
-    "collectNum":1,//收藏数量
-    "loveNum":3,//点赞数量
-    "forwardNum":4,//转发数
-    "initPvNum":300,//初始点击量
-    "initCollectNum":300,//初始收藏数量
-    "initLoveNum":300,//初始点赞数量
-    "initForwardNum":300//初始转发数
-}</t>
-  </si>
-  <si>
-    <t>我的收藏点赞活动列表</t>
-  </si>
-  <si>
-    <t>/cms/content/list/page/myself</t>
-  </si>
-  <si>
-    <t>{
-    "operType":1,//操作类型  1=收藏  2=点赞 3=转发 4=浏览详情
-    "userId":"5b0f0204c3230c8576fcb277b6b5ebaa"//用户id
-}</t>
-  </si>
-  <si>
-    <t>添加家属</t>
-  </si>
-  <si>
-    <t>/app/user/add/family</t>
-  </si>
-  <si>
-    <t>{
-    "childrenId": "5b0f0204c3230c8576fcb277b6b5eba1",//宝宝患者主键UUID
-    "mobile": "18312345678",//手机号
-    "relation": "母子",//用户宝宝关系
-    "aliasName": "测试"//别名
-}</t>
-  </si>
-  <si>
-    <t>修改家属</t>
-  </si>
-  <si>
-    <t>删除家属</t>
-  </si>
-  <si>
-    <t>根据宝宝获取家属成员</t>
-  </si>
-  <si>
-    <t>切换用户默认的显示宝宝</t>
-  </si>
-  <si>
-    <t>完善个人资料</t>
-  </si>
-  <si>
-    <t>小程序授权登录</t>
-  </si>
-  <si>
-    <t>个人资料详情</t>
-  </si>
-  <si>
-    <t>宝宝管理</t>
-  </si>
-  <si>
-    <t>获取宝宝列表</t>
-  </si>
-  <si>
-    <t>获取宝宝详情/默认宝宝详情</t>
-  </si>
-  <si>
-    <t>新增宝宝</t>
-  </si>
-  <si>
-    <t>更新宝宝信息</t>
-  </si>
-  <si>
-    <t>删除宝宝</t>
+    <t>{"authorization":"$.data.token"}</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10}</t>
   </si>
 </sst>
 </file>
@@ -2998,13 +2825,13 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -3327,4753 +3154,4753 @@
   <sheetPr/>
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomLeft" activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.98230088495575" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.2477876106195" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.2477876106195" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.4867256637168" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.7699115044248" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.50442477876106" style="3" customWidth="1"/>
-    <col min="7" max="7" width="34.6548672566372" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.0796460176991" style="3" customWidth="1"/>
-    <col min="9" max="9" width="27.4867256637168" style="3" customWidth="1"/>
-    <col min="10" max="10" width="39.9646017699115" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.8761061946903" style="3" customWidth="1"/>
-    <col min="12" max="14" width="13.8761061946903" style="3" customWidth="1"/>
-    <col min="15" max="15" width="21.1238938053097" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="6.98230088495575" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.2477876106195" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.353982300885" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.4867256637168" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.0796460176991" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.50442477876106" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.6548672566372" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.0796460176991" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.4867256637168" style="2" customWidth="1"/>
+    <col min="10" max="10" width="39.9646017699115" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.8761061946903" style="2" customWidth="1"/>
+    <col min="12" max="14" width="13.8761061946903" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.1238938053097" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:15">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="3">
-        <v>200</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="3">
-        <v>200</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>200</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2">
+        <v>200</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="3">
-        <v>200</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3">
-        <v>200</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>200</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2">
+        <v>200</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:16">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="3">
-        <v>200</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="3">
-        <v>200</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2">
+        <v>200</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2">
+        <v>200</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="3">
-        <v>200</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="L5" s="2">
+        <v>200</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:16">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="3">
-        <v>200</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="3">
-        <v>200</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2">
+        <v>200</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="2">
+        <v>200</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:16">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="3">
-        <v>200</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="3">
-        <v>200</v>
-      </c>
-      <c r="P7" s="3" t="s">
+      <c r="K7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="2">
+        <v>200</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2">
+        <v>200</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="3">
-        <v>200</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="K8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="2">
+        <v>200</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="3">
-        <v>200</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="K9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="2">
+        <v>200</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="2">
+        <v>200</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="3">
-        <v>200</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="K10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="2">
+        <v>200</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:16">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="3">
-        <v>200</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="3">
-        <v>200</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="2">
+        <v>200</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="2">
+        <v>200</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:16">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="H12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="3">
-        <v>200</v>
-      </c>
-      <c r="P12" s="3" t="s">
+      <c r="K12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="2">
+        <v>200</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="2">
+        <v>200</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="3">
-        <v>200</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="3">
+      <c r="K13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="2">
+        <v>200</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:15">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="H14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="3">
-        <v>200</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="3">
-        <v>200</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="K14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="2">
+        <v>200</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="2">
+        <v>200</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:14">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="H15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="3">
-        <v>200</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2">
+        <v>200</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:16">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="H16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="3">
-        <v>200</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="3">
-        <v>200</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="K16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2">
+        <v>200</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="2">
+        <v>200</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:16">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="H17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
-      </c>
-      <c r="P17" s="3" t="s">
+      <c r="K17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="2">
+        <v>200</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="2">
+        <v>200</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:14">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="H18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="3">
-        <v>200</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="K18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="2">
+        <v>200</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="H19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="3">
-        <v>200</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="3">
-        <v>200</v>
-      </c>
-      <c r="O19" s="3" t="s">
+      <c r="K19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="2">
+        <v>200</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="2">
+        <v>200</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:14">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="H20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="K20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="2">
+        <v>200</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:16">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="H21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="3">
-        <v>200</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="3">
-        <v>200</v>
-      </c>
-      <c r="P21" s="3" t="s">
+      <c r="K21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="2">
+        <v>200</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="2">
+        <v>200</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:16">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="H22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
-      </c>
-      <c r="P22" s="3" t="s">
+      <c r="K22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="2">
+        <v>200</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="2">
+        <v>200</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="H23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="3">
-        <v>200</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="K23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="2">
+        <v>200</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:15">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="H24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
-      </c>
-      <c r="O24" s="3" t="s">
+      <c r="K24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="2">
+        <v>200</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="2">
+        <v>200</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:14">
-      <c r="A25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="H25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="3">
-        <v>200</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="K25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="2">
+        <v>200</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:16">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="H26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="3">
-        <v>200</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="3">
-        <v>200</v>
-      </c>
-      <c r="P26" s="3" t="s">
+      <c r="K26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="2">
+        <v>200</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="2">
+        <v>200</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:16">
-      <c r="A27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="H27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="3">
-        <v>200</v>
-      </c>
-      <c r="P27" s="3" t="s">
+      <c r="K27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="2">
+        <v>200</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="2">
+        <v>200</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:14">
-      <c r="A28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="H28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="3">
-        <v>200</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="3">
+      <c r="K28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="2">
+        <v>200</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:15">
-      <c r="A29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="H29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" s="3">
-        <v>200</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" s="3">
-        <v>200</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="K29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="2">
+        <v>200</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="2">
+        <v>200</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:14">
-      <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="H30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" s="3">
-        <v>200</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="3">
+      <c r="K30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="2">
+        <v>200</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:16">
-      <c r="A31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="H31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" s="3">
-        <v>200</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="3">
-        <v>200</v>
-      </c>
-      <c r="P31" s="3" t="s">
+      <c r="K31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="2">
+        <v>200</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="2">
+        <v>200</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:16">
-      <c r="A32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="H32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="3">
-        <v>200</v>
-      </c>
-      <c r="P32" s="3" t="s">
+      <c r="K32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="2">
+        <v>200</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="2">
+        <v>200</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:14">
-      <c r="A33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="H33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33" s="3">
-        <v>200</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="K33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="2">
+        <v>200</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:14">
-      <c r="A34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="H34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" s="3">
-        <v>200</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34" s="3">
+      <c r="K34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="2">
+        <v>200</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:14">
-      <c r="A35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="F35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="H35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" s="3">
-        <v>200</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="K35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="2">
+        <v>200</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:14">
-      <c r="A36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="F36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J36" s="1" t="s">
+      <c r="H36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" s="3">
-        <v>200</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" s="3">
+      <c r="K36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="2">
+        <v>200</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:14">
-      <c r="A37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="F37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="H37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="3">
-        <v>200</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="3">
+      <c r="K37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="2">
+        <v>200</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:14">
-      <c r="A38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="F38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" s="1" t="s">
+      <c r="H38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" s="3">
-        <v>200</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N38" s="3">
+      <c r="K38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="2">
+        <v>200</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:15">
-      <c r="A39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="F39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="H39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" s="3">
-        <v>200</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N39" s="3">
-        <v>200</v>
-      </c>
-      <c r="O39" s="3" t="s">
+      <c r="K39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="2">
+        <v>200</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" s="2">
+        <v>200</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:14">
-      <c r="A40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="F40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J40" s="1" t="s">
+      <c r="H40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L40" s="3">
-        <v>200</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" s="3">
+      <c r="L40" s="2">
+        <v>200</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:16">
-      <c r="A41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="F41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="H41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
-      </c>
-      <c r="P41" s="3" t="s">
+      <c r="K41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" s="2">
+        <v>200</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="2">
+        <v>200</v>
+      </c>
+      <c r="P41" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:16">
-      <c r="A42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="H42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L42" s="3">
-        <v>200</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" s="3">
-        <v>200</v>
-      </c>
-      <c r="P42" s="3" t="s">
+      <c r="K42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="2">
+        <v>200</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="2">
+        <v>200</v>
+      </c>
+      <c r="P42" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:14">
-      <c r="A43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="F43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J43" s="1" t="s">
+      <c r="H43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="K43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="2">
+        <v>200</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:15">
-      <c r="A44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="F44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J44" s="3" t="s">
+      <c r="H44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="3">
-        <v>200</v>
-      </c>
-      <c r="O44" s="3" t="s">
+      <c r="K44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" s="2">
+        <v>200</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="2">
+        <v>200</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:14">
-      <c r="A45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="F45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="H45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L45" s="3">
-        <v>200</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="L45" s="2">
+        <v>200</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:14">
-      <c r="A46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="F46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="H46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="K46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="2">
+        <v>200</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:16">
-      <c r="A47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="F47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="H47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47" s="3">
-        <v>200</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N47" s="3">
-        <v>200</v>
-      </c>
-      <c r="P47" s="3" t="s">
+      <c r="K47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="2">
+        <v>200</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" s="2">
+        <v>200</v>
+      </c>
+      <c r="P47" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:14">
-      <c r="A48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="F48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" s="1" t="s">
+      <c r="H48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="K48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="2">
+        <v>200</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:15">
-      <c r="A49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="F49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" s="1" t="s">
+      <c r="H49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L49" s="3">
-        <v>200</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N49" s="3">
-        <v>200</v>
-      </c>
-      <c r="O49" s="3" t="s">
+      <c r="K49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" s="2">
+        <v>200</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" s="2">
+        <v>200</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:14">
-      <c r="A50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="F50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="1" t="s">
+      <c r="H50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L50" s="3">
-        <v>200</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N50" s="3">
+      <c r="K50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" s="2">
+        <v>200</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:16">
-      <c r="A51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="F51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J51" s="1" t="s">
+      <c r="H51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L51" s="3">
-        <v>200</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N51" s="3">
-        <v>200</v>
-      </c>
-      <c r="P51" s="3" t="s">
+      <c r="K51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" s="2">
+        <v>200</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" s="2">
+        <v>200</v>
+      </c>
+      <c r="P51" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:16">
-      <c r="A52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="F52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J52" s="3" t="s">
+      <c r="H52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L52" s="3">
-        <v>200</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N52" s="3">
-        <v>200</v>
-      </c>
-      <c r="P52" s="3" t="s">
+      <c r="K52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" s="2">
+        <v>200</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" s="2">
+        <v>200</v>
+      </c>
+      <c r="P52" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:18">
-      <c r="A53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="F53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J53" s="1" t="s">
+      <c r="H53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="3">
-        <v>200</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N53" s="3">
-        <v>200</v>
-      </c>
-      <c r="O53" s="3" t="s">
+      <c r="K53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="2">
+        <v>200</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" s="2">
+        <v>200</v>
+      </c>
+      <c r="O53" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="R53" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:14">
-      <c r="A54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="F54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J54" s="1" t="s">
+      <c r="H54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="K54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" s="2">
+        <v>200</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:14">
-      <c r="A55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="F55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J55" s="1" t="s">
+      <c r="H55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L55" s="3">
-        <v>200</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N55" s="3">
+      <c r="K55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" s="2">
+        <v>200</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:15">
-      <c r="A56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="F56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J56" s="1" t="s">
+      <c r="H56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L56" s="3">
-        <v>200</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N56" s="3">
-        <v>200</v>
-      </c>
-      <c r="O56" s="3" t="s">
+      <c r="K56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" s="2">
+        <v>200</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" s="2">
+        <v>200</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:14">
-      <c r="A57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="F57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J57" s="1" t="s">
+      <c r="H57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="K57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" s="2">
+        <v>200</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:14">
-      <c r="A58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="F58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J58" s="1" t="s">
+      <c r="H58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="K58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" s="2">
+        <v>200</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:14">
-      <c r="A59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="F59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J59" s="1" t="s">
+      <c r="H59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="K59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" s="2">
+        <v>200</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:18">
-      <c r="A60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="A60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="F60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J60" s="1" t="s">
+      <c r="H60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
-      </c>
-      <c r="O60" s="3" t="s">
+      <c r="K60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" s="2">
+        <v>200</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" s="2">
+        <v>200</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="R60" s="3" t="s">
+      <c r="R60" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:14">
-      <c r="A61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="F61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J61" s="1" t="s">
+      <c r="H61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="K61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L61" s="3">
-        <v>200</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N61" s="3">
+      <c r="K61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" s="2">
+        <v>200</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:14">
-      <c r="A62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="A62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="F62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J62" s="1" t="s">
+      <c r="H62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L62" s="3">
-        <v>200</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="K62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" s="2">
+        <v>200</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N62" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:14">
-      <c r="A63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="A63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="F63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J63" s="1" t="s">
+      <c r="H63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L63" s="3">
-        <v>200</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N63" s="3">
+      <c r="K63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" s="2">
+        <v>200</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N63" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:18">
-      <c r="A64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="F64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J64" s="1" t="s">
+      <c r="H64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L64" s="3">
-        <v>200</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N64" s="3">
-        <v>200</v>
-      </c>
-      <c r="O64" s="3" t="s">
+      <c r="K64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" s="2">
+        <v>200</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N64" s="2">
+        <v>200</v>
+      </c>
+      <c r="O64" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="R64" s="3" t="s">
+      <c r="R64" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:14">
-      <c r="A65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="A65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="F65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J65" s="1" t="s">
+      <c r="H65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L65" s="3">
-        <v>200</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N65" s="3">
+      <c r="K65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" s="2">
+        <v>200</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N65" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:14">
-      <c r="A66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="3" t="s">
+      <c r="A66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="F66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J66" s="1" t="s">
+      <c r="H66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="K66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L66" s="2">
+        <v>200</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N66" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:14">
-      <c r="A67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="F67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J67" s="1" t="s">
+      <c r="H67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L67" s="3">
-        <v>200</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N67" s="3">
+      <c r="K67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" s="2">
+        <v>200</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:14">
-      <c r="A68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="3" t="s">
+      <c r="A68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="F68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J68" s="1" t="s">
+      <c r="H68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L68" s="3">
-        <v>200</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N68" s="3">
+      <c r="K68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L68" s="2">
+        <v>200</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N68" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:14">
-      <c r="A69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="A69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="F69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J69" s="1" t="s">
+      <c r="H69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L69" s="3">
-        <v>200</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N69" s="3">
+      <c r="K69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L69" s="2">
+        <v>200</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N69" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:15">
-      <c r="A70" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" s="3" t="s">
+      <c r="A70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="F70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J70" s="1" t="s">
+      <c r="H70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L70" s="3">
-        <v>200</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N70" s="3">
-        <v>200</v>
-      </c>
-      <c r="O70" s="3" t="s">
+      <c r="K70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L70" s="2">
+        <v>200</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N70" s="2">
+        <v>200</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:14">
-      <c r="A71" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" s="3" t="s">
+      <c r="A71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="F71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J71" s="1" t="s">
+      <c r="H71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="K71" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L71" s="3">
-        <v>200</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N71" s="3">
+      <c r="K71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L71" s="2">
+        <v>200</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N71" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:14">
-      <c r="A72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="A72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="F72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="H72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L72" s="3">
-        <v>200</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="K72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L72" s="2">
+        <v>200</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N72" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:14">
-      <c r="A73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="A73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="F73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J73" s="1" t="s">
+      <c r="H73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="K73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L73" s="3">
-        <v>200</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N73" s="3">
+      <c r="K73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" s="2">
+        <v>200</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N73" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:15">
-      <c r="A74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="F74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J74" s="3" t="s">
+      <c r="H74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="K74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L74" s="3">
-        <v>200</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N74" s="3">
-        <v>200</v>
-      </c>
-      <c r="O74" s="3" t="s">
+      <c r="K74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L74" s="2">
+        <v>200</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N74" s="2">
+        <v>200</v>
+      </c>
+      <c r="O74" s="2" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:14">
-      <c r="A75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="F75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J75" s="1" t="s">
+      <c r="H75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="K75" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L75" s="3">
-        <v>200</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N75" s="3">
+      <c r="K75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L75" s="2">
+        <v>200</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N75" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:14">
-      <c r="A76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" s="3" t="s">
+      <c r="A76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="F76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J76" s="3" t="s">
+      <c r="H76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L76" s="3">
-        <v>200</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="K76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L76" s="2">
+        <v>200</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N76" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:14">
-      <c r="A77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="3" t="s">
+      <c r="A77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="F77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J77" s="1" t="s">
+      <c r="H77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="K77" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L77" s="3">
-        <v>200</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N77" s="3">
+      <c r="K77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L77" s="2">
+        <v>200</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N77" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:15">
-      <c r="A78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B78" s="3" t="s">
+      <c r="A78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="F78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J78" s="1" t="s">
+      <c r="H78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K78" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L78" s="3">
-        <v>200</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N78" s="3">
-        <v>200</v>
-      </c>
-      <c r="O78" s="3" t="s">
+      <c r="K78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L78" s="2">
+        <v>200</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N78" s="2">
+        <v>200</v>
+      </c>
+      <c r="O78" s="2" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:14">
-      <c r="A79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" s="3" t="s">
+      <c r="A79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="F79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J79" s="1" t="s">
+      <c r="H79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="K79" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L79" s="3">
-        <v>200</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N79" s="3">
+      <c r="K79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L79" s="2">
+        <v>200</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N79" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:14">
-      <c r="A80" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="3" t="s">
+      <c r="A80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="F80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="H80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L80" s="3">
-        <v>200</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N80" s="3">
+      <c r="K80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L80" s="2">
+        <v>200</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N80" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:15">
-      <c r="A81" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="A81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="F81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J81" s="1" t="s">
+      <c r="H81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L81" s="3">
-        <v>200</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N81" s="3">
-        <v>200</v>
-      </c>
-      <c r="O81" s="3" t="s">
+      <c r="K81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L81" s="2">
+        <v>200</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N81" s="2">
+        <v>200</v>
+      </c>
+      <c r="O81" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:14">
-      <c r="A82" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="3" t="s">
+      <c r="A82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="3" t="s">
+      <c r="F82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J82" s="1" t="s">
+      <c r="H82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K82" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L82" s="3">
-        <v>200</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N82" s="3">
+      <c r="K82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L82" s="2">
+        <v>200</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N82" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:14">
-      <c r="A83" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" s="3" t="s">
+      <c r="A83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="F83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J83" s="1" t="s">
+      <c r="H83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="K83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L83" s="2">
+        <v>200</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N83" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:14">
-      <c r="A84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" s="3" t="s">
+      <c r="A84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="F84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J84" s="3" t="s">
+      <c r="H84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K84" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L84" s="3">
-        <v>200</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N84" s="3">
+      <c r="K84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L84" s="2">
+        <v>200</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N84" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:14">
-      <c r="A85" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B85" s="3" t="s">
+      <c r="A85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="F85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J85" s="1" t="s">
+      <c r="H85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K85" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L85" s="3">
-        <v>200</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N85" s="3">
+      <c r="K85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L85" s="2">
+        <v>200</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N85" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:14">
-      <c r="A86" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" s="3" t="s">
+      <c r="A86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="F86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J86" s="3" t="s">
+      <c r="H86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="K86" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L86" s="3">
-        <v>200</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N86" s="3">
+      <c r="K86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L86" s="2">
+        <v>200</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N86" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:14">
-      <c r="A87" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="3" t="s">
+      <c r="A87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="F87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J87" s="3" t="s">
+      <c r="H87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J87" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L87" s="3">
-        <v>200</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N87" s="3">
+      <c r="K87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L87" s="2">
+        <v>200</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N87" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:14">
-      <c r="A88" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="A88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="3" t="s">
+      <c r="F88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I88" s="3" t="s">
+      <c r="H88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="K88" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L88" s="3">
-        <v>200</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N88" s="3">
+      <c r="K88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L88" s="2">
+        <v>200</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N88" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:15">
-      <c r="A89" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="A89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="F89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J89" s="3" t="s">
+      <c r="H89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
-      <c r="O89" s="3" t="s">
+      <c r="K89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L89" s="2">
+        <v>200</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N89" s="2">
+        <v>200</v>
+      </c>
+      <c r="O89" s="2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:14">
-      <c r="A90" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="A90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="F90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J90" s="3" t="s">
+      <c r="H90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="K90" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L90" s="3">
-        <v>200</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N90" s="3">
+      <c r="K90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L90" s="2">
+        <v>200</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N90" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:16">
-      <c r="A91" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="A91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="F91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J91" s="1" t="s">
+      <c r="H91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L91" s="3">
-        <v>200</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N91" s="3">
-        <v>200</v>
-      </c>
-      <c r="P91" s="3" t="s">
+      <c r="K91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L91" s="2">
+        <v>200</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N91" s="2">
+        <v>200</v>
+      </c>
+      <c r="P91" s="2" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:16">
-      <c r="A92" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="A92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="F92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" s="3" t="s">
+      <c r="H92" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="K92" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L92" s="3">
-        <v>200</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N92" s="3">
-        <v>200</v>
-      </c>
-      <c r="P92" s="3" t="s">
+      <c r="K92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L92" s="2">
+        <v>200</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N92" s="2">
+        <v>200</v>
+      </c>
+      <c r="P92" s="2" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:14">
-      <c r="A93" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93" s="3" t="s">
+      <c r="A93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="F93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J93" s="1" t="s">
+      <c r="H93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="K93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L93" s="3">
-        <v>200</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N93" s="3">
+      <c r="K93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L93" s="2">
+        <v>200</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N93" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:14">
-      <c r="A94" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B94" s="3" t="s">
+      <c r="A94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="F94" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J94" s="1" t="s">
+      <c r="H94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L94" s="3">
-        <v>200</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="K94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L94" s="2">
+        <v>200</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N94" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:15">
-      <c r="A95" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="F95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J95" s="1" t="s">
+      <c r="H95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J95" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="K95" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L95" s="3">
-        <v>200</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N95" s="3">
-        <v>200</v>
-      </c>
-      <c r="O95" s="3" t="s">
+      <c r="K95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L95" s="2">
+        <v>200</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N95" s="2">
+        <v>200</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:14">
-      <c r="A96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="A96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="F96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J96" s="1" t="s">
+      <c r="H96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="K96" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L96" s="3">
-        <v>200</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N96" s="3">
+      <c r="K96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L96" s="2">
+        <v>200</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N96" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:14">
-      <c r="A97" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97" s="3" t="s">
+      <c r="A97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="F97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J97" s="1" t="s">
+      <c r="H97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="K97" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L97" s="3">
-        <v>200</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N97" s="3">
+      <c r="K97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L97" s="2">
+        <v>200</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N97" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:14">
-      <c r="A98" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="F98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J98" s="1" t="s">
+      <c r="H98" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="K98" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L98" s="3">
-        <v>200</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N98" s="3">
+      <c r="K98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L98" s="2">
+        <v>200</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N98" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:14">
-      <c r="A99" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="A99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="F99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J99" s="3" t="s">
+      <c r="H99" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="K99" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L99" s="3">
-        <v>200</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N99" s="3">
+      <c r="K99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L99" s="2">
+        <v>200</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N99" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:14">
-      <c r="A100" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B100" s="3" t="s">
+      <c r="A100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="3" t="s">
+      <c r="F100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="H100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J100" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="K100" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L100" s="2">
+        <v>200</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N100" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:15">
-      <c r="A101" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="A101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="F101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="H101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L101" s="3">
-        <v>200</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N101" s="3">
-        <v>200</v>
-      </c>
-      <c r="O101" s="3" t="s">
+      <c r="K101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L101" s="2">
+        <v>200</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N101" s="2">
+        <v>200</v>
+      </c>
+      <c r="O101" s="2" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:14">
-      <c r="A102" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B102" s="3" t="s">
+      <c r="A102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" s="3" t="s">
+      <c r="F102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J102" s="3" t="s">
+      <c r="H102" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J102" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L102" s="3">
-        <v>200</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="K102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L102" s="2">
+        <v>200</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N102" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:16">
-      <c r="A103" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="3" t="s">
+      <c r="A103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" s="3" t="s">
+      <c r="F103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H103" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J103" s="1" t="s">
+      <c r="H103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J103" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="K103" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L103" s="3">
-        <v>200</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N103" s="3">
-        <v>200</v>
-      </c>
-      <c r="P103" s="3" t="s">
+      <c r="K103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L103" s="2">
+        <v>200</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N103" s="2">
+        <v>200</v>
+      </c>
+      <c r="P103" s="2" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:16">
-      <c r="A104" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B104" s="3" t="s">
+      <c r="A104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="F104" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J104" s="3" t="s">
+      <c r="H104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="K104" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L104" s="3">
-        <v>200</v>
-      </c>
-      <c r="M104" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N104" s="3">
-        <v>200</v>
-      </c>
-      <c r="P104" s="3" t="s">
+      <c r="K104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L104" s="2">
+        <v>200</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N104" s="2">
+        <v>200</v>
+      </c>
+      <c r="P104" s="2" t="s">
         <v>467</v>
       </c>
     </row>
@@ -8089,37 +7916,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.2477876106195" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5044247787611" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.8761061946903" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.6283185840708" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.8761061946903" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3716814159292" style="1" customWidth="1"/>
-    <col min="10" max="10" width="39.9646017699115" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.8761061946903" style="1" customWidth="1"/>
-    <col min="12" max="14" width="13.8761061946903" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1238938053097" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.98230088495575" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.2477876106195" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.2477876106195" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.4867256637168" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.7699115044248" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.50442477876106" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.6548672566372" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.0796460176991" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.4867256637168" style="2" customWidth="1"/>
+    <col min="10" max="10" width="39.9646017699115" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.8761061946903" style="2" customWidth="1"/>
+    <col min="12" max="14" width="13.8761061946903" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.1238938053097" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="27" spans="1:16">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -8161,431 +7991,105 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" ht="171" customHeight="1" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>200</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2">
+        <v>200</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1">
-        <v>200</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1">
-        <v>200</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" ht="44" customHeight="1" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1">
-        <v>200</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1">
-        <v>200</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" ht="81" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1">
-        <v>200</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" ht="67.5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1">
-        <v>200</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" ht="234" customHeight="1" spans="2:15">
-      <c r="B6" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="1">
-        <v>200</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="1">
-        <v>200</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" ht="40.5" spans="2:14">
-      <c r="B7" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="1">
-        <v>200</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" ht="229.5" spans="2:14">
-      <c r="B8" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1">
-        <v>200</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" ht="94.5" spans="2:14">
-      <c r="B9" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="1">
-        <v>200</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" ht="108" spans="2:10">
-      <c r="B10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="2:5">
-      <c r="B13" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="2:5">
-      <c r="B14" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="2:5">
-      <c r="B19" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>514</v>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>200</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R3">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/datas/huarun999/huarun999_middle.xlsx
+++ b/datas/huarun999/huarun999_middle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17017" windowHeight="9660"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API华润999" sheetId="1" r:id="rId1"/>
@@ -3154,27 +3154,27 @@
   <sheetPr/>
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J104" sqref="J104"/>
+      <selection pane="bottomLeft" activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.98230088495575" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.2477876106195" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.353982300885" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.4867256637168" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.0796460176991" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.50442477876106" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.6548672566372" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.0796460176991" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.4867256637168" style="2" customWidth="1"/>
-    <col min="10" max="10" width="39.9646017699115" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.8761061946903" style="2" customWidth="1"/>
-    <col min="12" max="14" width="13.8761061946903" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.1238938053097" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.98333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.35" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.4833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.0833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.6583333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.0833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.4833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="39.9666666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="2" customWidth="1"/>
+    <col min="12" max="14" width="13.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.125" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -7918,27 +7918,27 @@
   <sheetPr/>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="6.98230088495575" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.2477876106195" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.2477876106195" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.4867256637168" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.7699115044248" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.50442477876106" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.6548672566372" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.0796460176991" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.4867256637168" style="2" customWidth="1"/>
-    <col min="10" max="10" width="39.9646017699115" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.8761061946903" style="2" customWidth="1"/>
-    <col min="12" max="14" width="13.8761061946903" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.1238938053097" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.98333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.4833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.7666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.6583333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.0833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.4833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="39.9666666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="2" customWidth="1"/>
+    <col min="12" max="14" width="13.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.125" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
